--- a/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E57B759C-F7C2-4CCD-B483-F09FBEF613C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F798618-5F0A-4D4A-ADF1-0FB8057209D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{48CCC236-6BB9-4F81-A9E7-AFA6F792A0DB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7066EDA5-B37E-41BE-9F2E-CEA9947E5BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,13%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -95,7 +95,7 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,21%</t>
+    <t>3,11%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,77%</t>
+    <t>96,87%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -113,16 +113,16 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,79%</t>
+    <t>96,89%</t>
   </si>
   <si>
     <t>98,88%</t>
@@ -137,55 +137,55 @@
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>16,32%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,169 +251,169 @@
     <t>16,3%</t>
   </si>
   <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
     <t>19,08%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,55 @@
     <t>16,14%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
   </si>
   <si>
     <t>22,02%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
   </si>
   <si>
     <t>19,44%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
   </si>
   <si>
     <t>77,98%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>80,56%</t>
   </si>
   <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,103 +479,109 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
   </si>
   <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>32,51%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>24,01%</t>
   </si>
   <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
   </si>
   <si>
     <t>81,58%</t>
   </si>
   <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>70,47%</t>
   </si>
   <si>
-    <t>67,49%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>75,99%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>16,97%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CB8FD4-278E-4A22-BDA5-35B386E6415C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907C6144-41D5-4653-8D98-0560EF3B9E88}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2217,10 +2223,10 @@
         <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>546</v>
@@ -2229,13 +2235,13 @@
         <v>414809</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2256,13 @@
         <v>701111</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -2265,13 +2271,13 @@
         <v>611942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -2280,13 +2286,13 @@
         <v>1313053</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,13 +2360,13 @@
         <v>447158</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1177</v>
@@ -2369,13 +2375,13 @@
         <v>777883</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1672</v>
@@ -2384,13 +2390,13 @@
         <v>1225041</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,13 +2411,13 @@
         <v>2938070</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4190</v>
@@ -2420,28 +2426,28 @@
         <v>3057698</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7071</v>
       </c>
       <c r="N29" s="7">
-        <v>5995768</v>
+        <v>5995767</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2489,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F798618-5F0A-4D4A-ADF1-0FB8057209D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F72B060-BD86-44E8-8BC0-0E0356CB44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7066EDA5-B37E-41BE-9F2E-CEA9947E5BAF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4808231-5722-400D-AAC7-99DCB7435FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907C6144-41D5-4653-8D98-0560EF3B9E88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92044E91-CE79-471D-9BAD-995BD7DF7387}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F72B060-BD86-44E8-8BC0-0E0356CB44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9BD8F1-3F21-4C1D-B8ED-53A441959020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B4808231-5722-400D-AAC7-99DCB7435FBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09BC6B72-DEAA-4208-B6C3-ADBA4E1F1F0B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>1,41%</t>
@@ -77,16 +77,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,13%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -95,7 +95,7 @@
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,11%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,7 +104,7 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>96,87%</t>
+    <t>96,77%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -113,16 +113,16 @@
     <t>97,51%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,89%</t>
+    <t>96,79%</t>
   </si>
   <si>
     <t>98,88%</t>
@@ -137,55 +137,55 @@
     <t>6,65%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
   </si>
   <si>
     <t>85,91%</t>
   </si>
   <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>16,32%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
   </si>
   <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
   </si>
   <si>
     <t>19,53%</t>
   </si>
   <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>77,71%</t>
   </si>
   <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>80,47%</t>
   </si>
   <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,337 +251,331 @@
     <t>16,3%</t>
   </si>
   <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
     <t>11,95%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>88,05%</t>
   </si>
   <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
   </si>
   <si>
     <t>83,03%</t>
   </si>
   <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92044E91-CE79-471D-9BAD-995BD7DF7387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E79927-DA21-41C3-9221-B4283AC547BD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2223,10 +2217,10 @@
         <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>546</v>
@@ -2235,13 +2229,13 @@
         <v>414809</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2250,13 @@
         <v>701111</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -2271,13 +2265,13 @@
         <v>611942</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
@@ -2286,13 +2280,13 @@
         <v>1313053</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2354,13 @@
         <v>447158</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1177</v>
@@ -2375,13 +2369,13 @@
         <v>777883</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1672</v>
@@ -2390,13 +2384,13 @@
         <v>1225041</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2405,13 @@
         <v>2938070</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>4190</v>
@@ -2426,28 +2420,28 @@
         <v>3057698</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>7071</v>
       </c>
       <c r="N29" s="7">
-        <v>5995767</v>
+        <v>5995768</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2483,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2497,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/ProblemasDormirP33b-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9BD8F1-3F21-4C1D-B8ED-53A441959020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78AF5010-B420-4660-9369-041EED42A57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09BC6B72-DEAA-4208-B6C3-ADBA4E1F1F0B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D53E8C9D-C7E1-43B8-B99E-40F88C581DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población con problemas para dormir a diario en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,448 +134,442 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>Cordoba</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
   </si>
   <si>
     <t>Granada</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>Huelva</t>
   </si>
   <si>
-    <t>4,14%</t>
+    <t>4,11%</t>
   </si>
   <si>
     <t>2,27%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
   </si>
   <si>
     <t>97,73%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>Jaen</t>
   </si>
   <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>Malaga</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>21,3%</t>
   </si>
   <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>78,7%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
+    <t>74,18%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -990,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E79927-DA21-41C3-9221-B4283AC547BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1907B616-16A0-4E9F-9FF7-33104EA8A73A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1111,7 +1105,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>3658</v>
+        <v>3985</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1126,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>6750</v>
+        <v>7232</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1141,7 +1135,7 @@
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>10408</v>
+        <v>11217</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1162,7 +1156,7 @@
         <v>326</v>
       </c>
       <c r="D5" s="7">
-        <v>256640</v>
+        <v>307458</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1177,7 +1171,7 @@
         <v>525</v>
       </c>
       <c r="I5" s="7">
-        <v>264653</v>
+        <v>282403</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1192,7 +1186,7 @@
         <v>851</v>
       </c>
       <c r="N5" s="7">
-        <v>521292</v>
+        <v>589860</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1213,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1228,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1243,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1266,7 +1260,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>34551</v>
+        <v>33941</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1281,7 +1275,7 @@
         <v>106</v>
       </c>
       <c r="I7" s="7">
-        <v>78118</v>
+        <v>72104</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1296,7 +1290,7 @@
         <v>132</v>
       </c>
       <c r="N7" s="7">
-        <v>112668</v>
+        <v>106045</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1317,7 +1311,7 @@
         <v>356</v>
       </c>
       <c r="D8" s="7">
-        <v>484746</v>
+        <v>484449</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1332,7 +1326,7 @@
         <v>611</v>
       </c>
       <c r="I8" s="7">
-        <v>476448</v>
+        <v>442865</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1347,7 +1341,7 @@
         <v>967</v>
       </c>
       <c r="N8" s="7">
-        <v>961196</v>
+        <v>927314</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1368,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1398,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1421,7 +1415,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="7">
-        <v>52602</v>
+        <v>50941</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1436,7 +1430,7 @@
         <v>128</v>
       </c>
       <c r="I10" s="7">
-        <v>83201</v>
+        <v>77315</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1451,7 +1445,7 @@
         <v>189</v>
       </c>
       <c r="N10" s="7">
-        <v>135804</v>
+        <v>128256</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1472,7 +1466,7 @@
         <v>299</v>
       </c>
       <c r="D11" s="7">
-        <v>269638</v>
+        <v>265109</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1487,7 +1481,7 @@
         <v>408</v>
       </c>
       <c r="I11" s="7">
-        <v>290083</v>
+        <v>271813</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1502,7 +1496,7 @@
         <v>707</v>
       </c>
       <c r="N11" s="7">
-        <v>559720</v>
+        <v>536922</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1523,7 +1517,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1532,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1553,7 +1547,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1576,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>52527</v>
+        <v>50468</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1591,7 +1585,7 @@
         <v>153</v>
       </c>
       <c r="I13" s="7">
-        <v>97190</v>
+        <v>89456</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1606,7 +1600,7 @@
         <v>203</v>
       </c>
       <c r="N13" s="7">
-        <v>149717</v>
+        <v>139924</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1627,7 +1621,7 @@
         <v>242</v>
       </c>
       <c r="D14" s="7">
-        <v>269713</v>
+        <v>262089</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1642,7 +1636,7 @@
         <v>446</v>
       </c>
       <c r="I14" s="7">
-        <v>331366</v>
+        <v>386262</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1657,7 +1651,7 @@
         <v>688</v>
       </c>
       <c r="N14" s="7">
-        <v>601079</v>
+        <v>648350</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1678,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1693,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1708,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1731,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>8140</v>
+        <v>7350</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -1746,7 +1740,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="7">
-        <v>16719</v>
+        <v>15175</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -1761,7 +1755,7 @@
         <v>52</v>
       </c>
       <c r="N16" s="7">
-        <v>24859</v>
+        <v>22526</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -1782,7 +1776,7 @@
         <v>266</v>
       </c>
       <c r="D17" s="7">
-        <v>188608</v>
+        <v>171392</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -1797,7 +1791,7 @@
         <v>456</v>
       </c>
       <c r="I17" s="7">
-        <v>242794</v>
+        <v>243604</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -1812,7 +1806,7 @@
         <v>722</v>
       </c>
       <c r="N17" s="7">
-        <v>431401</v>
+        <v>414995</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -1833,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1848,7 +1842,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1863,7 +1857,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1886,7 +1880,7 @@
         <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>36056</v>
+        <v>34327</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -1901,7 +1895,7 @@
         <v>124</v>
       </c>
       <c r="I19" s="7">
-        <v>62298</v>
+        <v>58074</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -1916,7 +1910,7 @@
         <v>178</v>
       </c>
       <c r="N19" s="7">
-        <v>98355</v>
+        <v>92401</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -1937,7 +1931,7 @@
         <v>317</v>
       </c>
       <c r="D20" s="7">
-        <v>241167</v>
+        <v>235309</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -1952,7 +1946,7 @@
         <v>336</v>
       </c>
       <c r="I20" s="7">
-        <v>213324</v>
+        <v>198982</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -1967,7 +1961,7 @@
         <v>653</v>
       </c>
       <c r="N20" s="7">
-        <v>454490</v>
+        <v>434291</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -1988,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2003,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2018,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2041,7 +2035,7 @@
         <v>102</v>
       </c>
       <c r="D22" s="7">
-        <v>101307</v>
+        <v>99082</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -2056,7 +2050,7 @@
         <v>252</v>
       </c>
       <c r="I22" s="7">
-        <v>177115</v>
+        <v>162789</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -2071,7 +2065,7 @@
         <v>354</v>
       </c>
       <c r="N22" s="7">
-        <v>278421</v>
+        <v>261871</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -2092,7 +2086,7 @@
         <v>497</v>
       </c>
       <c r="D23" s="7">
-        <v>526447</v>
+        <v>525197</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -2107,7 +2101,7 @@
         <v>708</v>
       </c>
       <c r="I23" s="7">
-        <v>627088</v>
+        <v>686476</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -2122,7 +2116,7 @@
         <v>1205</v>
       </c>
       <c r="N23" s="7">
-        <v>1153536</v>
+        <v>1211673</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2143,7 +2137,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2158,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2173,7 +2167,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2196,7 +2190,7 @@
         <v>184</v>
       </c>
       <c r="D25" s="7">
-        <v>158317</v>
+        <v>135620</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -2211,31 +2205,31 @@
         <v>362</v>
       </c>
       <c r="I25" s="7">
-        <v>256492</v>
+        <v>215150</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>546</v>
       </c>
       <c r="N25" s="7">
-        <v>414809</v>
+        <v>350770</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2247,46 +2241,46 @@
         <v>578</v>
       </c>
       <c r="D26" s="7">
-        <v>701111</v>
+        <v>793100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
       </c>
       <c r="I26" s="7">
-        <v>611942</v>
+        <v>502581</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1278</v>
       </c>
       <c r="N26" s="7">
-        <v>1313053</v>
+        <v>1295682</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2313,7 +2307,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2328,7 +2322,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2351,43 +2345,43 @@
         <v>495</v>
       </c>
       <c r="D28" s="7">
-        <v>447158</v>
+        <v>415715</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>1177</v>
       </c>
       <c r="I28" s="7">
-        <v>777883</v>
+        <v>697294</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1672</v>
       </c>
       <c r="N28" s="7">
-        <v>1225041</v>
+        <v>1113009</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>170</v>
@@ -2402,7 +2396,7 @@
         <v>2881</v>
       </c>
       <c r="D29" s="7">
-        <v>2938070</v>
+        <v>3044102</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>171</v>
@@ -2417,7 +2411,7 @@
         <v>4190</v>
       </c>
       <c r="I29" s="7">
-        <v>3057698</v>
+        <v>3014986</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -2432,16 +2426,16 @@
         <v>7071</v>
       </c>
       <c r="N29" s="7">
-        <v>5995768</v>
+        <v>6059088</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2447,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2468,7 +2462,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2483,7 +2477,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
